--- a/DataLoads/Output/closedtransactions.xlsx
+++ b/DataLoads/Output/closedtransactions.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N80"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -513,12 +513,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>PENNYMAC CASH Jul 24 8028352704-0055 104 Meadow</t>
+          <t>PENNYMAC CASH Aug 24 8028352704-0056 104 Meadow</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -570,7 +570,7 @@
         </is>
       </c>
       <c r="N2" t="n">
-        <v>14028</v>
+        <v>14107</v>
       </c>
     </row>
     <row r="3">
@@ -581,16 +581,16 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ55Y6Q 104MV TO TRULO PROPERTY MANAGEMENT</t>
+          <t>OnePlus Realty G SIGONFILE 080924 VY88N2 Meadow View Homes LLC</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>-75</v>
+        <v>1950</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -609,17 +609,17 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>104Meadow</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>104Meadow</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -629,16 +629,16 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>14029</v>
+        <v>14108</v>
       </c>
     </row>
     <row r="4">
@@ -649,16 +649,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 3TRBL2 Meadow View Homes LLC</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VMZ9B 104MV TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1300</v>
+        <v>-75</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -677,19 +677,19 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
+          <t>W9-TRULO</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
           <t>104Meadow</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
       <c r="K4" t="inlineStr">
         <is>
           <t>Initial</t>
@@ -697,16 +697,16 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>14030</v>
+        <v>14109</v>
       </c>
     </row>
     <row r="5">
@@ -717,12 +717,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ58NCB 108MV TO TRULO PROPERTY MANAGEMENT</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VCNRL 108MV TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -774,7 +774,7 @@
         </is>
       </c>
       <c r="N5" t="n">
-        <v>14031</v>
+        <v>14110</v>
       </c>
     </row>
     <row r="6">
@@ -785,12 +785,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002632 PARUL GUPTA</t>
+          <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002632 PARUL GUPTA</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -842,7 +842,7 @@
         </is>
       </c>
       <c r="N6" t="n">
-        <v>14032</v>
+        <v>14111</v>
       </c>
     </row>
     <row r="7">
@@ -853,16 +853,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 6TRBL2 Pagoda Homes LLC (108</t>
+          <t>OnePlus Realty G SIGONFILE 080924 XY88N2 Pagoda Homes LLC (108</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>1925</v>
+        <v>2025</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -910,7 +910,7 @@
         </is>
       </c>
       <c r="N7" t="n">
-        <v>14033</v>
+        <v>14112</v>
       </c>
     </row>
     <row r="8">
@@ -921,16 +921,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>FREEDOM MTG PYMTS 070124 0129201927 NEERAJ GUPTA</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VHFSF TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>-726.97</v>
+        <v>-75</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -949,12 +949,12 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -969,16 +969,16 @@
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>14034</v>
+        <v>14113</v>
       </c>
     </row>
     <row r="9">
@@ -989,16 +989,16 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ59FR9 TRULO PROPERTY MANAGEMENT MONTHLY FEE</t>
+          <t>FREEDOM MTG PYMTS 080124 0129201927 NEERAJ GUPTA</t>
         </is>
       </c>
       <c r="D9" t="n">
-        <v>-75</v>
+        <v>-726.97</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1037,16 +1037,16 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>14035</v>
+        <v>14114</v>
       </c>
     </row>
     <row r="10">
@@ -1057,16 +1057,16 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 073124 PZKLM2 Neeraj Gupta (Brewer)</t>
+          <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002633 PARUL GUPTA</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2295</v>
+        <v>-711.48</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1085,19 +1085,19 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
+          <t>GeneralVendor</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
           <t>1117Brewer</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
       <c r="K10" t="inlineStr">
         <is>
           <t>Initial</t>
@@ -1105,16 +1105,16 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>14036</v>
+        <v>14115</v>
       </c>
     </row>
     <row r="11">
@@ -1125,16 +1125,16 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 0TRBL2 Neeraj Gupta (Brewer)</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TWZK5 BREWER TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>1823.14</v>
+        <v>-75</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1153,19 +1153,19 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
+          <t>W9-TRULO</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
           <t>1117Brewer</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
       <c r="K11" t="inlineStr">
         <is>
           <t>Initial</t>
@@ -1173,36 +1173,36 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>14037</v>
+        <v>14116</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002633 PARUL GUPTA</t>
+          <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:080124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000019427854 EED:240801   IND ID:                             IND NAME:PARUL GUPTA TRN: 2149427854TC</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>-711.48</v>
+        <v>-675.63</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1250,27 +1250,27 @@
         </is>
       </c>
       <c r="N12" t="n">
-        <v>14038</v>
+        <v>14117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ59Q3N BREWER TO TRULO PROPERTY MANAGEMENT</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:080924 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926082370597 EED:240809   IND ID:ZY88N2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2222370597TC</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>-75</v>
+        <v>1644.72</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1289,17 +1289,17 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>114Sidney</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>1117Brewer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1309,36 +1309,36 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>14039</v>
+        <v>14118</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315744 EED:240710   IND ID:8TRBL2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1928315744TC</t>
+          <t>NEWREZ-SHELLPOIN ACH PMT 240731 0683624456 GUPTA PARUL</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>1860</v>
+        <v>-456.02</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1357,17 +1357,17 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -1377,36 +1377,36 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>14040</v>
+        <v>14119</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:SERVICEMAC PMT         ORIG ID:4823070213 DESC DATE:070124 CO ENTRY DESCR:MTGE PAYMTSEC:PPD    TRACE#:091000010669125 EED:240701   IND ID:                             IND NAME:PARUL GUPTA TRN: 1830669125TC</t>
+          <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0P5LXJ2X BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
         </is>
       </c>
       <c r="D15" t="n">
-        <v>-675.63</v>
+        <v>-150</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>A01-Income</t>
+          <t>F01-BankTransfer</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Transfer</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1435,7 +1435,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>114Sidney</t>
+          <t>116Meadow</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1450,11 +1450,11 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>Checking</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>14041</v>
+        <v>14120</v>
       </c>
     </row>
     <row r="16">
@@ -1465,16 +1465,16 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 4TRBL2 Meadow View Homes LLC</t>
+          <t>OnePlus Realty G SIGONFILE 080924 WY88N2 Meadow View Homes LLC</t>
         </is>
       </c>
       <c r="D16" t="n">
-        <v>1600</v>
+        <v>1900</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
@@ -1522,7 +1522,7 @@
         </is>
       </c>
       <c r="N16" t="n">
-        <v>14042</v>
+        <v>14121</v>
       </c>
     </row>
     <row r="17">
@@ -1533,16 +1533,16 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO MEADOW VIEW HOMES LLC REF #OP0NSR3SBH BUSINESS MARKET RATE SAVINGS 116 MV CHK TO SAV</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2V3PQ8 116MV TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>-150</v>
+        <v>-75</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1556,17 +1556,17 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1581,36 +1581,36 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Checking</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>14043</v>
+        <v>14122</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>NEWREZ-SHELLPOIN ACH PMT 240630 0683624456 GUPTA PARUL</t>
+          <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0P5LXJ2X BUSINESS CHECKING 116 MV CHK TO SAV</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>-456.02</v>
+        <v>150</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1624,22 +1624,22 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>A01-Income</t>
+          <t>F01-BankTransfer</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Transfer</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1649,36 +1649,36 @@
       </c>
       <c r="L18" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Savings</t>
         </is>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>14044</v>
+        <v>14123</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ6F5RZ 116MV TO TRULO PROPERTY MANAGEMENT</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D19" t="n">
-        <v>-75</v>
+        <v>0.02</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1697,17 +1697,17 @@
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>116MeadowSavings</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>116Meadow</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="K19" t="inlineStr">
@@ -1717,36 +1717,36 @@
       </c>
       <c r="L19" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>14045</v>
+        <v>14124</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2024-07-09</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER FROM MEADOW VIEW HOMES LLC REF #OP0NSR3SBH BUSINESS CHECKING 116 MV CHK TO SAV</t>
+          <t>OnePlus Realty G SIGONFILE 080924 YY88N2 Pagoda Homes LLC (Rose</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>150</v>
+        <v>1883.52</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1760,22 +1760,22 @@
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1785,36 +1785,36 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>Savings</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>14046</v>
+        <v>14125</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-21</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>INTEREST PAYMENT</t>
+          <t>FOREMOST EPM PYMT 240820 3810091873545 VIVEK JADHAV</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0.03</v>
+        <v>-395</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1833,17 +1833,17 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Rev-Interest</t>
+          <t>Exp-Insurance</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>116MeadowSavings</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>1316Rosemon</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -1853,16 +1853,16 @@
       </c>
       <c r="L21" t="inlineStr">
         <is>
-          <t>BankInterest</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>Insurance</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>14047</v>
+        <v>14126</v>
       </c>
     </row>
     <row r="22">
@@ -1873,16 +1873,16 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FOREMOST EPM PYMT 240726 3810091873545 VIVEK JADHAV</t>
+          <t>PENNYMAC CASH Aug 24 8028350915-0056 1316 Rosemon</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>-414</v>
+        <v>-963.16</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1901,7 +1901,7 @@
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Exp-Insurance</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1926,11 +1926,11 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Insurance</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N22" t="n">
-        <v>14048</v>
+        <v>14127</v>
       </c>
     </row>
     <row r="23">
@@ -1941,16 +1941,16 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 7TRBL2 Pagoda Homes LLC (Rose</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TXGGY ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>3729</v>
+        <v>-150</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1969,19 +1969,19 @@
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
+          <t>W9-TRULO</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
           <t>1316Rosemon</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
       <c r="K23" t="inlineStr">
         <is>
           <t>Initial</t>
@@ -1989,36 +1989,36 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N23" t="n">
-        <v>14049</v>
+        <v>14128</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>PENNYMAC CASH Jul 24 8028350915-0055 1316 Rosemon</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VKXGK NEWTON TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>-963.16</v>
+        <v>-75</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2037,17 +2037,17 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="K24" t="inlineStr">
@@ -2057,36 +2057,36 @@
       </c>
       <c r="L24" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>14050</v>
+        <v>14129</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ54Y3C ROSEMON TO TRULO PROPERTY MANAGEMENT</t>
+          <t>NEWREZ-SHELLPOIN ACH PMT 240731 0683856942 GUPTA PARUL</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>-150</v>
+        <v>-563.38</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -2105,17 +2105,17 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>1316Rosemon</t>
+          <t>1342Newton</t>
         </is>
       </c>
       <c r="K25" t="inlineStr">
@@ -2125,36 +2125,36 @@
       </c>
       <c r="L25" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>14051</v>
+        <v>14130</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 5TRBL2 Pagoda Homes (Newton)</t>
+          <t>ONLINE TRANSFER FROM GUPTA P REF #IB0PC4CFZC PLATINUM SAVINGS EDDY ESTATES LLC MORTGAGE PAYMENT</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>1995</v>
+        <v>947</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2173,17 +2173,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2193,36 +2193,36 @@
       </c>
       <c r="L26" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>EddyEstatesLLC</t>
         </is>
       </c>
       <c r="N26" t="n">
-        <v>14052</v>
+        <v>14131</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-27</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>NEWREZ-SHELLPOIN ACH PMT 240630 0683856942 GUPTA PARUL</t>
+          <t>BILL PAY Eddy Account 9189321 ON-LINE xxxx xxxxxxxxxx xroup ON 08-27</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>-563.38</v>
+        <v>-947</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2251,7 +2251,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -2261,36 +2261,36 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>EddyEstatesLLC</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>1905Morning</t>
         </is>
       </c>
       <c r="N27" t="n">
-        <v>14053</v>
+        <v>14132</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>2208Chase</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 073124 RZKLM2 Pagoda Homes (Newton)</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>1748.17</v>
+        <v>0.01</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2309,17 +2309,17 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>2208Chase</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="K28" t="inlineStr">
@@ -2329,36 +2329,36 @@
       </c>
       <c r="L28" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>14054</v>
+        <v>14133</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ6T9P2 NEWTON TO TRULO PROPERTY MANAGEMENT</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>-75</v>
+        <v>0.1</v>
       </c>
       <c r="E29" t="inlineStr">
         <is>
@@ -2377,17 +2377,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>1342Newton</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="K29" t="inlineStr">
@@ -2397,36 +2397,36 @@
       </c>
       <c r="L29" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>14055</v>
+        <v>14134</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2208Chase</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>INTEREST PAYMENT</t>
+          <t>JPMORGAN CHASE CHASE ACH 080124 4027425045 MEADOW VIEW HOMES LLC</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0.01</v>
+        <v>-947.72</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Rev-Interest</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>2208Chase</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>2417Garden</t>
         </is>
       </c>
       <c r="K30" t="inlineStr">
@@ -2465,16 +2465,16 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>BankInterest</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>14056</v>
+        <v>14135</v>
       </c>
     </row>
     <row r="31">
@@ -2485,16 +2485,16 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>INTEREST PAYMENT</t>
+          <t>OnePlus Realty G SIGONFILE 080924 TY88N2 Meadow View Homes LLC</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0.08</v>
+        <v>2950</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Rev-Interest</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2523,7 +2523,7 @@
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K31" t="inlineStr">
@@ -2533,36 +2533,36 @@
       </c>
       <c r="L31" t="inlineStr">
         <is>
-          <t>BankInterest</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>14057</v>
+        <v>14136</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 1TRBL2 Meadow View Homes LLC</t>
+          <t>Online Payment 21567571562 To CHASE HOME MORTGAGE 08/29</t>
         </is>
       </c>
       <c r="D32" t="n">
-        <v>2700</v>
+        <v>-1118.25</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2581,17 +2581,17 @@
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -2601,36 +2601,36 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>14058</v>
+        <v>14137</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>JPMORGAN CHASE CHASE ACH 070124 4027425045 MEADOW VIEW HOMES LLC</t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240808 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012459473 EED:240809   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2222459473TC</t>
         </is>
       </c>
       <c r="D33" t="n">
-        <v>-947.72</v>
+        <v>-45.66</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2649,7 +2649,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2659,7 +2659,7 @@
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>2417Garden</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -2674,11 +2674,11 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>CityServices</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>14059</v>
+        <v>14138</v>
       </c>
     </row>
     <row r="34">
@@ -2689,16 +2689,16 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">CHECK 2032  </t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240808 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012459467 EED:240809   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2222459467TC</t>
         </is>
       </c>
       <c r="D34" t="n">
-        <v>-500</v>
+        <v>-48.89</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -2712,12 +2712,12 @@
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>B01-SecurityDeposit</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Security-Refund</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2732,21 +2732,21 @@
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Initial</t>
         </is>
       </c>
       <c r="L34" t="inlineStr">
         <is>
-          <t>Initial</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>CityServices</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>14060</v>
+        <v>14139</v>
       </c>
     </row>
     <row r="35">
@@ -2757,16 +2757,16 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411692 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411692TC</t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240808 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012459469 EED:240809   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2222459469TC</t>
         </is>
       </c>
       <c r="D35" t="n">
-        <v>-46.3</v>
+        <v>-65.56</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="N35" t="n">
-        <v>14061</v>
+        <v>14140</v>
       </c>
     </row>
     <row r="36">
@@ -2825,16 +2825,16 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411685 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411685TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240805 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017379970 EED:240806   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2197379970TC</t>
         </is>
       </c>
       <c r="D36" t="n">
-        <v>-49.54</v>
+        <v>-82.47</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2878,11 +2878,11 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>CityServices</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="N36" t="n">
-        <v>14062</v>
+        <v>14141</v>
       </c>
     </row>
     <row r="37">
@@ -2893,16 +2893,16 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411691 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411691TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240805 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017363565 EED:240806   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2197363565TC</t>
         </is>
       </c>
       <c r="D37" t="n">
-        <v>-70.08</v>
+        <v>-119.6</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2946,11 +2946,11 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>CityServices</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="N37" t="n">
-        <v>14063</v>
+        <v>14142</v>
       </c>
     </row>
     <row r="38">
@@ -2961,16 +2961,16 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240709 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000018411687 EED:240710   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1928411687TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240805 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000017363592 EED:240806   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2197363592TC</t>
         </is>
       </c>
       <c r="D38" t="n">
-        <v>-134.46</v>
+        <v>-188.8</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3014,11 +3014,11 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>CityServices</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="N38" t="n">
-        <v>14064</v>
+        <v>14143</v>
       </c>
     </row>
     <row r="39">
@@ -3029,16 +3029,16 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-05</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315743 EED:240710   IND ID:2TRBL2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 1928315743TC</t>
+          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240802 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000016012185 EED:240805   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2186012185TC</t>
         </is>
       </c>
       <c r="D39" t="n">
-        <v>1504.75</v>
+        <v>-169.1</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -3057,19 +3057,19 @@
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
+          <t>GeneralVendor</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
           <t>4909Jamesway</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
       <c r="K39" t="inlineStr">
         <is>
           <t>Initial</t>
@@ -3077,16 +3077,16 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>Energy</t>
         </is>
       </c>
       <c r="N39" t="n">
-        <v>14065</v>
+        <v>14144</v>
       </c>
     </row>
     <row r="40">
@@ -3097,16 +3097,16 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010929691 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850929691TC</t>
+          <t>ORIG CO NAME:CITY OF FORT WOR       ORIG ID:0000000160 DESC DATE:240812 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000012973937 EED:240813   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 2262973937TC</t>
         </is>
       </c>
       <c r="D40" t="n">
-        <v>-51.49</v>
+        <v>-178.76</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3150,11 +3150,11 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>CityServices</t>
         </is>
       </c>
       <c r="N40" t="n">
-        <v>14066</v>
+        <v>14145</v>
       </c>
     </row>
     <row r="41">
@@ -3165,16 +3165,16 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010926310 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850926310TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:081524 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085820474 EED:240815   IND ID:4DRRN2                       IND NAME:Pagoda Homes LLC (Jame                                                                                       469-867-9837 TRN: 2285820474TC</t>
         </is>
       </c>
       <c r="D41" t="n">
-        <v>-95.72</v>
+        <v>2239.53</v>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3193,17 +3193,17 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>4909Jamesway</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3213,36 +3213,36 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N41" t="n">
-        <v>14067</v>
+        <v>14146</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010926327 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850926327TC</t>
+          <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:080124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000029832472 EED:240801   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 2149832472TC</t>
         </is>
       </c>
       <c r="D42" t="n">
-        <v>-143.42</v>
+        <v>-1383.06</v>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3261,7 +3261,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -3271,7 +3271,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -3286,31 +3286,31 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N42" t="n">
-        <v>14068</v>
+        <v>14147</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2024-07-03</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:EXELON CORPORATI       ORIG ID:0000000160 DESC DATE:240702 CO ENTRY DESCR:BILLPAY   SEC:PPD    TRACE#:091000010929696 EED:240703   IND ID:                             IND NAME:NEERAJ GUPTA TRN: 1850929696TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:081524 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085820470 EED:240815   IND ID:WCRRN2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2285820470TC</t>
         </is>
       </c>
       <c r="D43" t="n">
-        <v>-148.43</v>
+        <v>4400</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3329,17 +3329,17 @@
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Exp-Utilities</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>4920Brianhill</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -3349,36 +3349,36 @@
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>Energy</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N43" t="n">
-        <v>14069</v>
+        <v>14148</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-12</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Online Payment 21229559529 To CHASE HOME MORTGAGE 07/31</t>
+          <t xml:space="preserve">CHECK 1071  </t>
         </is>
       </c>
       <c r="D44" t="n">
-        <v>-1118.25</v>
+        <v>-50</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3397,7 +3397,7 @@
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-ProfessionalServices</t>
         </is>
       </c>
       <c r="I44" t="inlineStr">
@@ -3407,7 +3407,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -3417,36 +3417,36 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>CityofFortworthViolation</t>
         </is>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>14070</v>
+        <v>14149</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2024-07-22</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:VRBO                   ORIG ID:9872667522 DESC DATE:240719 CO ENTRY DESCR:PAYMENT   SEC:PPD    TRACE#:031101111714572 EED:240722   IND ID:                             IND NAME:Neeraj Gupta TRN: 2041714572TC</t>
+          <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240731 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000083659872 EED:240801   IND ID:                             IND NAME:JADHAV VIVEK TRN: 2143659872TC</t>
         </is>
       </c>
       <c r="D45" t="n">
-        <v>1699.24</v>
+        <v>-1383.06</v>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3465,17 +3465,17 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>4909Jamesway</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -3485,36 +3485,36 @@
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>VRBORent</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>14071</v>
+        <v>14150</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-15</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:073124 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926084765326 EED:240731   IND ID:QZKLM2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2134765326TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:081524 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926085820469 EED:240815   IND ID:VCRRN2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 2285820469TC</t>
         </is>
       </c>
       <c r="D46" t="n">
-        <v>6414.53</v>
+        <v>2850.41</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3538,7 +3538,7 @@
       </c>
       <c r="I46" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>6401Basswood</t>
         </is>
       </c>
       <c r="J46" t="inlineStr">
@@ -3562,27 +3562,27 @@
         </is>
       </c>
       <c r="N46" t="n">
-        <v>14072</v>
+        <v>14151</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:JPMORGAN CHASE         ORIG ID:1000008113 DESC DATE:070124 CO ENTRY DESCR:CHASE ACH SEC:PPD    TRACE#:021000020928596 EED:240701   IND ID:                             IND NAME:MEADOW VIEW HOMES LLC TRN: 1830928596TC</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2TT3W6 PARKS TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D47" t="n">
-        <v>-1383.06</v>
+        <v>-75</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3601,17 +3601,17 @@
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I47" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>4920Brianhill</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -3621,36 +3621,36 @@
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>14073</v>
+        <v>14152</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:NEWREZ-SHELLPOIN       ORIG ID:6371542226 DESC DATE:240630 CO ENTRY DESCR:ACH PMT   SEC:PPD    TRACE#:028000083248476 EED:240701   IND ID:                             IND NAME:JADHAV VIVEK TRN: 1833248476TC</t>
+          <t>SERVICEMAC PMT MTGE PAYMT 080124 5114002634 PARUL GUPTA</t>
         </is>
       </c>
       <c r="D48" t="n">
-        <v>-1383.06</v>
+        <v>-733.95</v>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>711Parks</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -3698,27 +3698,27 @@
         </is>
       </c>
       <c r="N48" t="n">
-        <v>14074</v>
+        <v>14153</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315742 EED:240710   IND ID:ZSRBL2                       IND NAME:Pagoda Homes LLC (Bass                                                                                       469-867-9837 TRN: 1928315742TC</t>
+          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:080924 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926082370598 EED:240809   IND ID:0Z88N2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 2222370598TC</t>
         </is>
       </c>
       <c r="D49" t="n">
-        <v>2655</v>
+        <v>1814.38</v>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3742,7 +3742,7 @@
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>6401Basswood</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
@@ -3766,27 +3766,27 @@
         </is>
       </c>
       <c r="N49" t="n">
-        <v>14075</v>
+        <v>14154</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ5P3GX PARKS TO TRULO PROPERTY MANAGEMENT</t>
+          <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Aug 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000021437718 EED:240801   IND ID:8028351082-0056              IND NAME:8604 Wagon TRN: 2141437718TC</t>
         </is>
       </c>
       <c r="D50" t="n">
-        <v>-75</v>
+        <v>-843.79</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3805,17 +3805,17 @@
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>8604Wagon</t>
         </is>
       </c>
       <c r="K50" t="inlineStr">
@@ -3825,36 +3825,36 @@
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M50" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N50" t="n">
-        <v>14076</v>
+        <v>14155</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-02</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>SERVICEMAC PMT MTGE PAYMT 070124 5114002634 PARUL GUPTA</t>
+          <t>PENNYMAC CASH Aug 24 8028351602-0055 vivek jadhav</t>
         </is>
       </c>
       <c r="D51" t="n">
-        <v>-733.95</v>
+        <v>-694.01</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3883,7 +3883,7 @@
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>711Parks</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
@@ -3902,27 +3902,27 @@
         </is>
       </c>
       <c r="N51" t="n">
-        <v>14077</v>
+        <v>14156</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>7417Canoga</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-09</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Online Transfer to CHK ...5031 transaction#: 21572783954 07/31</t>
+          <t>OnePlus Realty G SIGONFILE 080924 1Z88N2 Pagoda Homes (Wintergr</t>
         </is>
       </c>
       <c r="D52" t="n">
-        <v>-248</v>
+        <v>1900</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3936,61 +3936,61 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I52" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>7417Canoga</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>Common-&gt;Canoga</t>
+          <t>Initial</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>Initial</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>7417Canoga</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>14078</v>
+        <v>14157</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:OnePlus Realty G       ORIG ID:9001504486 DESC DATE:071024 CO ENTRY DESCR:SIGONFILE SEC:CCD    TRACE#:111926088315745 EED:240710   IND ID:9TRBL2                       IND NAME:Meadow View Homes LLC                                                                                        469-867-9837 TRN: 1928315745TC</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2V8M6F WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
         </is>
       </c>
       <c r="D53" t="n">
-        <v>2100</v>
+        <v>-75</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4009,17 +4009,17 @@
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I53" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>874Wintergreen</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -4029,36 +4029,36 @@
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>14079</v>
+        <v>14158</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-29</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:PENNYMAC               ORIG ID:1262049351 DESC DATE:Jul 24 CO ENTRY DESCR:CASH      SEC:WEB    TRACE#:021000020542007 EED:240701   IND ID:8028351082-0055              IND NAME:8604 Wagon TRN: 1830542007TC</t>
+          <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240828 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000025701084 EED:240829   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 2425701084TC</t>
         </is>
       </c>
       <c r="D54" t="n">
-        <v>-843.79</v>
+        <v>-40.35</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4077,7 +4077,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Exp-Repair</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -4087,7 +4087,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>8604Wagon</t>
+          <t>Common</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4102,31 +4102,31 @@
       </c>
       <c r="M54" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>Autopay</t>
         </is>
       </c>
       <c r="N54" t="n">
-        <v>14080</v>
+        <v>14159</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2024-07-10</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>OnePlus Realty G SIGONFILE 071024 BTRBL2 Pagoda Homes (Wintergr</t>
+          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 08/30 Ref#20240830021000021P1BRJPC03760121683</t>
         </is>
       </c>
       <c r="D55" t="n">
-        <v>1900</v>
+        <v>920</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -4174,27 +4174,27 @@
         </is>
       </c>
       <c r="N55" t="n">
-        <v>14081</v>
+        <v>14160</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-13</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ68C2D WINTERGREEN TO TRULO PROPERTY MANAGEMENT</t>
+          <t>RECURRING PAYMENT AUTHORIZED ON 08/12 Spectrum 855-707-7328 MO S464225547250464 CARD 4162</t>
         </is>
       </c>
       <c r="D56" t="n">
-        <v>-75</v>
+        <v>-83.29000000000001</v>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4213,17 +4213,17 @@
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>Exp-Mgmt</t>
+          <t>Exp-Utilities</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="K56" t="inlineStr">
@@ -4233,36 +4233,36 @@
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M56" t="inlineStr">
         <is>
-          <t>PropertyManagement</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="N56" t="n">
-        <v>14082</v>
+        <v>14161</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2024-07-02</t>
+          <t>2024-08-14</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>PENNYMAC CASH Jul 24 8028351602-0054 vivek jadhav</t>
+          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 08/14 Ref#20240814021000021P1BRJPC00500037215</t>
         </is>
       </c>
       <c r="D57" t="n">
-        <v>-694.01</v>
+        <v>250</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4281,17 +4281,17 @@
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Exp-Mortgage</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>874Wintergreen</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4301,36 +4301,36 @@
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M57" t="inlineStr">
         <is>
-          <t>Mortgage</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N57" t="n">
-        <v>14083</v>
+        <v>14162</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-06</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Online Transfer from CHK ...6571 transaction#: 21572783954</t>
+          <t>BUSINESS TO BUSINESS ACH Lument7313 ACH 490011466</t>
         </is>
       </c>
       <c r="D58" t="n">
-        <v>248</v>
+        <v>-9368.889999999999</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4344,61 +4344,61 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>F01-BankTransfer</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Transfer</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>GeneralCustomer</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>Common-&gt;Canoga</t>
+          <t>Initial</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>Initial</t>
+          <t>Mortgage</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>14084</v>
+        <v>14163</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2024-07-31</t>
+          <t>2024-08-01</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Zelle payment from TRULO PROPERTY MANAGEMENT LLC 21572866504</t>
+          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0P2VK6BX TRULO MONTHLY PM FEE MIDWAY INN</t>
         </is>
       </c>
       <c r="D59" t="n">
-        <v>250</v>
+        <v>-1500</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4417,56 +4417,56 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Exp-Repair</t>
+          <t>Exp-Mgmt</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>W9-TRULO</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
+          <t>Midway</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>Initial</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
           <t>W9-TRULO</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>TRULORefund</t>
-        </is>
-      </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>W9-TRULO</t>
+          <t>PropertyManagement</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>14085</v>
+        <v>14164</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2024-07-29</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240728 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000024987396 EED:240729   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 2114987396TC</t>
+          <t>OnePlus Realty G SIGONFILE 083024 5CCJP2 Midway Inn LLC</t>
         </is>
       </c>
       <c r="D60" t="n">
-        <v>-358.39</v>
+        <v>16702.38</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4485,17 +4485,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Exp-Repair</t>
+          <t>Rev-Rent</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Midway</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="K60" t="inlineStr">
@@ -4505,36 +4505,36 @@
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>Property</t>
         </is>
       </c>
       <c r="M60" t="inlineStr">
         <is>
-          <t>Autopay</t>
+          <t>W9-ONEPLUS</t>
         </is>
       </c>
       <c r="N60" t="n">
-        <v>14086</v>
+        <v>14165</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>PagodaSecurity</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2024-07-01</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>ORIG CO NAME:CHASE CREDIT CRD       ORIG ID:4760039224 DESC DATE:240628 CO ENTRY DESCR:AUTOPAYBUSSEC:PPD    TRACE#:021000020238031 EED:240701   IND ID:                             IND NAME:GUPTA NEERAJ TRN: 1830238031TC</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D61" t="n">
-        <v>-96.29000000000001</v>
+        <v>0.24</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4553,17 +4553,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Exp-Repair</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>PagodaSecurity</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>Common</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
@@ -4573,36 +4573,36 @@
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>GeneralVendor</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>Autopay</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>14087</v>
+        <v>14166</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2024-07-30</t>
+          <t>2024-08-30</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 07/30 Ref#20240730021000021P1BRJPC00520076928</t>
+          <t>INTEREST PAYMENT</t>
         </is>
       </c>
       <c r="D62" t="n">
-        <v>17028.44</v>
+        <v>121.69</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4621,17 +4621,17 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Rev-Rent</t>
+          <t>Rev-Interest</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -4641,36 +4641,36 @@
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>Property</t>
+          <t>BankInterest</t>
         </is>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>W9-ONEPLUS</t>
+          <t>GeneralCustomer</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>14088</v>
+        <v>14167</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2024-07-23</t>
+          <t>2024-08-26</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>CHECK # 1011</t>
+          <t>ONLINE TRANSFER TO MEADOW VIEW HOMES LLC REF #IB0PC4CFZC BUSINESS CHECKING EDDY ESTATES LLC MORTGAGE PAYMENT</t>
         </is>
       </c>
       <c r="D63" t="n">
-        <v>-800</v>
+        <v>-947</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4684,12 +4684,12 @@
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>B01-SecurityDeposit</t>
+          <t>A01-Income</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Security-Refund</t>
+          <t>Exp-Mortgage</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
@@ -4699,1182 +4699,26 @@
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>Partnership</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>ChristinaFain</t>
+          <t>Initial</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
         <is>
-          <t>Initial</t>
+          <t>GeneralVendor</t>
         </is>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>Midway</t>
+          <t>EddyEstatesLLC</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>14089</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>WF Bus Credit AUTO PAY 240721 90469914333885 GUPTA,NEERAJ</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>-136.07</v>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>Exp-Repair</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>Autopay</t>
-        </is>
-      </c>
-      <c r="N64" t="n">
-        <v>14090</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>2024-07-22</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Instant Pmt from ONEPLUS REALTY GROUP LLC on 07/21 Ref#20240721021000021P1BRJPC00510064841</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>800</v>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>Rev-Rent</t>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>Property</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>W9-ONEPLUS</t>
-        </is>
-      </c>
-      <c r="N65" t="n">
-        <v>14091</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>2024-07-15</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>RECURRING PAYMENT AUTHORIZED ON 07/14 DNH*GODADDY#318938 480-5058855 AZ S584196656484877 CARD 4162</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>-22.17</v>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>Exp-Utilities</t>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-      <c r="N66" t="n">
-        <v>14092</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>2024-07-15</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>RECURRING PAYMENT AUTHORIZED ON 07/12 Spectrum 855-707-7328 MO S584194554099969 CARD 4162</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>-77.28</v>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>Exp-Utilities</t>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-      <c r="N67" t="n">
-        <v>14093</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>2024-07-11</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>BUSINESS TO BUSINESS ACH CITY OFARLINGTON UTILITYIVR 240710 5743289 MIDWAY INN *LLC</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>-956.2</v>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>Exp-Utilities</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>CityServices</t>
-        </is>
-      </c>
-      <c r="N68" t="n">
-        <v>14094</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>2024-07-08</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>BUSINESS TO BUSINESS ACH Lument7313 ACH 490011466</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>-9212.299999999999</v>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>Exp-Mortgage</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>Mortgage</t>
-        </is>
-      </c>
-      <c r="N69" t="n">
-        <v>14095</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>2024-07-08</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>PURCHASE AUTHORIZED ON 07/06 Mobimatter Abu Dhabi ARE S464188635540782 CARD 4162</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>-11.63</v>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>Exp-Travel</t>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>VivekPersonal</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="N70" t="n">
-        <v>14096</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>2024-07-01</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>RECURRING TRANSFER TO JPMORGAN CHASE BANK, NA CHK XXXXX8616 N. GUPTA REF #FP0NQ5FSZ3 TRULO MONTHLY PM FEE MIDWAY INN</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>-1500</v>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>Exp-Mgmt</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>W9-TRULO</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>W9-TRULO</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>PropertyManagement</t>
-        </is>
-      </c>
-      <c r="N71" t="n">
-        <v>14097</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>2024-07-30</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>RECURRING PAYMENT AUTHORIZED ON 07/29 DNH*GODADDY#321752 480-5058855 AZ S304211626202408 CARD 4162</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>-204.42</v>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>Exp-Utilities</t>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Midway</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Internet</t>
-        </is>
-      </c>
-      <c r="N72" t="n">
-        <v>14098</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>PagodaSecurity</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>2024-07-31</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>INTEREST PAYMENT</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>Rev-Interest</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>PagodaSecurity</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>BankInterest</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="N73" t="n">
-        <v>14099</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>2024-07-31</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>INTEREST PAYMENT</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>158.77</v>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>A01-Income</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Rev-Interest</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>BankInterest</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>14100</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>ZELLE TO PROPERTY MANAGEMENT TRULO ON 07/12 REF #RP0SF2YHM4 ATTORNEY FEE WIRE THRU CHASE FOR CHAKRI</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>-450</v>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>W9-TRULO</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>14101</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER TO GUPTA N REF #IB0NTSRLJC EVERYDAY CHECKING CHAKRI WIRE XFER FEE</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>-40</v>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="N76" t="n">
-        <v>14102</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER FROM GUPTA N REF #IB0NTSQSGR EVERYDAY CHECKING CHAKRI PAID ATTORNEY FEE</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>450</v>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>14103</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>2024-07-12</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER FROM GUPTA N REF #IB0NTSQG3V EVERYDAY CHECKING CHAKRI INT JULY</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>1100</v>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>GeneralCustomer</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="N78" t="n">
-        <v>14104</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>2024-07-10</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER TO GUPTA N REF #IB0NT79WFZ EVERYDAY CHECKING CHAKRI AND SRAVYA</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>-135000</v>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="N79" t="n">
-        <v>14105</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="B80" t="inlineStr">
-        <is>
-          <t>2024-07-10</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>ONLINE TRANSFER TO GUPTA N REF #IB0NT74JWP EVERYDAY CHECKING CHAKRADER AND SRAVYA</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>-15000</v>
-      </c>
-      <c r="E80" t="inlineStr">
-        <is>
-          <t>clean</t>
-        </is>
-      </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>closed</t>
-        </is>
-      </c>
-      <c r="G80" t="inlineStr">
-        <is>
-          <t>C01-Capex</t>
-        </is>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Capex-Refi</t>
-        </is>
-      </c>
-      <c r="I80" t="inlineStr">
-        <is>
-          <t>GeneralVendor</t>
-        </is>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>HardmoneyChakri</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Initial</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>Partnership</t>
-        </is>
-      </c>
-      <c r="N80" t="n">
-        <v>14106</v>
+        <v>14168</v>
       </c>
     </row>
   </sheetData>
